--- a/Totalligent.UI/Uploads/InsuranceCompanyMaster.xlsx
+++ b/Totalligent.UI/Uploads/InsuranceCompanyMaster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Documents\Visual Studio 2017\Projects\TotalligentProject\Totalligent.UI\Masters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeeva-PC\Desktop\Projects\TPA\Totalligent29June\Totalligent.UI\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BC1F83-32F1-4489-9CE5-D6039F6E5720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7844721A-3DBC-47DD-AFD8-3FF49202CF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InsuranceCompanyMaster" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>InsurancecompanyName</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>EmailId</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>Injambakkam</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Jeeva</t>
+  </si>
+  <si>
+    <t>jeeva@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -413,20 +431,20 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,17 +470,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>600041</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9094317112</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -472,7 +506,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -482,7 +516,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -492,7 +526,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -503,6 +537,9 @@
       <c r="H6" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{80275B6D-11C9-40BA-8283-A64B12EF52A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>